--- a/Collections/Germany/#Germany#Weimar_Republic#Mark#Regular#[1919-1925]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Weimar_Republic#Mark#Regular#[1919-1925]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725AB78-36E3-418A-86B2-88BF78A6D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957E93F-A62A-4256-8D57-BB9C951DED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,13 @@
     <sheet name="500ℳ" sheetId="32" r:id="rId5"/>
     <sheet name="Links" sheetId="21" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1ℳ'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'200ℳ'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3ℳ'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'50₰'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'500ℳ'!$B$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1076,18 +1083,9 @@
     <t>coindatabase</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1296,6 +1294,15 @@
   </si>
   <si>
     <t>3ℳ</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Composition</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -1598,14 +1605,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,6 +1632,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2481,55 +2488,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -2538,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -2556,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -2573,29 +2580,29 @@
         <v>1919</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
@@ -2625,29 +2632,29 @@
         <v>1920</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -2677,29 +2684,29 @@
         <v>1921</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -2729,29 +2736,29 @@
         <v>1922</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
@@ -2939,9 +2946,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -3266,55 +3273,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -3323,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -3341,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -3628,29 +3635,29 @@
         <v>1924</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -3680,17 +3687,17 @@
         <v>1925</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>0</v>
@@ -3728,9 +3735,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -3936,55 +3943,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -3993,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -4011,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -4190,23 +4197,23 @@
         <v>1922</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>0</v>
@@ -4296,29 +4303,29 @@
         <v>1924</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -4348,17 +4355,17 @@
         <v>1925</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>0</v>
@@ -4396,9 +4403,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -4421,7 +4428,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M6">
+  <conditionalFormatting sqref="M6 M8">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4450,7 +4457,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 K6">
+  <conditionalFormatting sqref="K6 K8">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4673,55 +4680,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -4730,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -4748,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -4981,29 +4988,29 @@
         <v>1923</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -5137,9 +5144,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -5311,55 +5318,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -5368,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -5386,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -5619,29 +5626,29 @@
         <v>1923</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -5775,9 +5782,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{845587D5-28A9-4559-AA30-CB80681C8D8B}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -5964,10 +5971,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5978,7 +5985,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5989,7 +5996,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5997,10 +6004,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
